--- a/biology/Botanique/Solanoideae/Solanoideae.xlsx
+++ b/biology/Botanique/Solanoideae/Solanoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Solanoideae sont l'une des dix (ou douze) sous-familles de la famille des Solanaceae. Parmi les Solanaceae, les Solanoideae contiennent certains des genres et espèces parmi les  plus importants sur le plan économique, telles que la tomate (Solanum lycopersicon), la pomme de terre (Solanum tuberosum), l'aubergine (Solanum melongena), le piment (Capsicum spp.) ainsi que la mandragore et le datura stramoine (Datura stramonium).
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette sous-famille comprend plusieurs tribus bien établies  : Capsiceae, Datureae, Hyoscyameae, Juanulloeae, Lycieae, Nicandreae, Nolaneae, Physaleae, Solandreae et Solaneae[1]. Elle comprend aussi les tribus discutées des  Mandragoreae et Jaboroseae.
-Selon NCBI  (5 août 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette sous-famille comprend plusieurs tribus bien établies  : Capsiceae, Datureae, Hyoscyameae, Juanulloeae, Lycieae, Nicandreae, Nolaneae, Physaleae, Solandreae et Solaneae. Elle comprend aussi les tribus discutées des  Mandragoreae et Jaboroseae.
+Selon NCBI  (5 août 2010) :
 tribu des Benthamielleae
 tribu des Capsiceae
 tribu des Datureae
@@ -556,9 +570,11 @@
           <t>Relations entre tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les relations entre les tribus ont été récemment bien décrites. Les Nicandreae sont la tribu la plus basique  de la famille[3]. Les Datureae sont au même niveau que les Physaleae, Capsiceae et Solaneae. Les Solaneae + (Physaleae + Capsiceae) forment un groupe  monophylétique bien établi, mais son placement exact au sein du clade n'est pas clair[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les relations entre les tribus ont été récemment bien décrites. Les Nicandreae sont la tribu la plus basique  de la famille. Les Datureae sont au même niveau que les Physaleae, Capsiceae et Solaneae. Les Solaneae + (Physaleae + Capsiceae) forment un groupe  monophylétique bien établi, mais son placement exact au sein du clade n'est pas clair.
 </t>
         </is>
       </c>
